--- a/BLACK_SUNRISE_YCbCr/135_Degree_GLCM/B_n.xlsx
+++ b/BLACK_SUNRISE_YCbCr/135_Degree_GLCM/B_n.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,12 +45,16 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +335,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1">
+        <v>0.0003178742408450498</v>
+      </c>
+      <c r="B1">
+        <v>0.09594590578067827</v>
+      </c>
+      <c r="C1">
+        <v>0.99930790374111045</v>
+      </c>
+      <c r="D1">
+        <v>0.99984106287957752</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0.0023787978042017783</v>
+      </c>
+      <c r="B2">
+        <v>0.73167222174136048</v>
+      </c>
+      <c r="C2">
+        <v>0.98722325799117783</v>
+      </c>
+      <c r="D2">
+        <v>0.9988106010978991</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.00075011018904140993</v>
+      </c>
+      <c r="B3">
+        <v>0.4365885690942275</v>
+      </c>
+      <c r="C3">
+        <v>0.99785278426547352</v>
+      </c>
+      <c r="D3">
+        <v>0.99962494490547948</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.061628073840773012</v>
+      </c>
+      <c r="B4">
+        <v>0.79679556742922075</v>
+      </c>
+      <c r="C4">
+        <v>0.64221301870417624</v>
+      </c>
+      <c r="D4">
+        <v>0.96918596307961347</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>